--- a/SERVER/Common/Data/excel/RewardDefine.xlsx
+++ b/SERVER/Common/Data/excel/RewardDefine.xlsx
@@ -28,7 +28,7 @@
     <t>Decs</t>
   </si>
   <si>
-    <t>Reward List</t>
+    <t>RewardList</t>
   </si>
   <si>
     <t>int</t>
@@ -49,7 +49,7 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>Json格式</t>
+    <t>奖励</t>
   </si>
   <si>
     <t>哥布林掉落</t>
@@ -58,7 +58,7 @@
     <t>Drop</t>
   </si>
   <si>
-    <t>[{"itemId":1, "number":1, "probability":10}, {"itemId":2, "number":2, "probability":20}]</t>
+    <t>[{"ItemId":1, "Number":1, "Probability":0.1}, {"ItemId":2, "Number":2, "Probability":0.2}]</t>
   </si>
   <si>
     <t>任务奖励</t>
@@ -67,7 +67,7 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>收集</t>
+    <t>收集任务奖励</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
@@ -1043,7 +1043,7 @@
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="56.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.9166666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="95.1666666666667" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>

--- a/SERVER/Common/Data/excel/RewardDefine.xlsx
+++ b/SERVER/Common/Data/excel/RewardDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -55,19 +55,28 @@
     <t>哥布林掉落</t>
   </si>
   <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>[{"ItemId":1, "Number":1, "Probability":0.1}, {"ItemId":2, "Number":2, "Probability":0.2}]</t>
+    <t>DropItem</t>
+  </si>
+  <si>
+    <t>[{"ItemId":1001, "Number":1, "Probability":1}, {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1}]</t>
   </si>
   <si>
     <t>任务奖励</t>
   </si>
   <si>
-    <t>Inventory</t>
+    <t>InventoryItem</t>
   </si>
   <si>
     <t>收集任务奖励</t>
+  </si>
+  <si>
+    <t>经验值奖励</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>[{"BuffId":2, "Probability":1}]</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1042,7 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1129,6 +1138,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="16" customHeight="1" spans="3:3">
       <c r="C16" s="4"/>
     </row>

--- a/SERVER/Common/Data/excel/RewardDefine.xlsx
+++ b/SERVER/Common/Data/excel/RewardDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -52,13 +52,28 @@
     <t>奖励</t>
   </si>
   <si>
-    <t>哥布林掉落</t>
+    <t>哥布林掉落1</t>
   </si>
   <si>
     <t>DropItem</t>
   </si>
   <si>
-    <t>[{"ItemId":1001, "Number":1, "Probability":1}, {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1},  {"ItemId":1001, "Number":1, "Probability":1}]</t>
+    <t>哥布林掉落物品</t>
+  </si>
+  <si>
+    <t>[{"ItemId":1001, "Number":1, "Probability":1}, {"ItemId":1001, "Number":1, "Probability":1}]</t>
+  </si>
+  <si>
+    <t>哥布林掉落2</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>哥布林掉落经验</t>
+  </si>
+  <si>
+    <t>[{"BuffId":1001, "Probability":1}]</t>
   </si>
   <si>
     <t>任务奖励</t>
@@ -71,9 +86,6 @@
   </si>
   <si>
     <t>经验值奖励</t>
-  </si>
-  <si>
-    <t>Buff</t>
   </si>
   <si>
     <t>[{"BuffId":2, "Probability":1}]</t>
@@ -1040,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
@@ -1118,42 +1130,56 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
+        <v>201</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:3">
-      <c r="C16" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
       <c r="C17" s="4"/>
@@ -1164,8 +1190,8 @@
     <row r="19" customHeight="1" spans="3:3">
       <c r="C19" s="4"/>
     </row>
-    <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="4"/>
+    <row r="20" customHeight="1" spans="3:3">
+      <c r="C20" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="3:3">
       <c r="C22" s="4"/>
@@ -1181,6 +1207,9 @@
     </row>
     <row r="26" customHeight="1" spans="3:3">
       <c r="C26" s="4"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:3">
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERVER/Common/Data/excel/RewardDefine.xlsx
+++ b/SERVER/Common/Data/excel/RewardDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22920" windowHeight="7190"/>
+    <workbookView windowWidth="20330" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="RewardDefine" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -52,43 +52,22 @@
     <t>奖励</t>
   </si>
   <si>
-    <t>哥布林掉落1</t>
+    <t>哥布林指骨</t>
   </si>
   <si>
     <t>DropItem</t>
   </si>
   <si>
-    <t>哥布林掉落物品</t>
-  </si>
-  <si>
-    <t>[{"ItemId":1001, "Number":1, "Probability":1}, {"ItemId":1001, "Number":1, "Probability":1}]</t>
-  </si>
-  <si>
-    <t>哥布林掉落2</t>
+    <t>[{"ItemId":1008, "Number":1, "Probability":1}, {"ItemId":1008, "Number":1, "Probability":1}]</t>
+  </si>
+  <si>
+    <t>哥布林任务奖励</t>
   </si>
   <si>
     <t>Buff</t>
   </si>
   <si>
-    <t>哥布林掉落经验</t>
-  </si>
-  <si>
     <t>[{"BuffId":1001, "Probability":1}]</t>
-  </si>
-  <si>
-    <t>任务奖励</t>
-  </si>
-  <si>
-    <t>InventoryItem</t>
-  </si>
-  <si>
-    <t>收集任务奖励</t>
-  </si>
-  <si>
-    <t>经验值奖励</t>
-  </si>
-  <si>
-    <t>[{"BuffId":2, "Probability":1}]</t>
   </si>
 </sst>
 </file>
@@ -1054,14 +1033,14 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.4166666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="56.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="95.1666666666667" style="3" customWidth="1"/>
@@ -1130,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
@@ -1141,44 +1120,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="3">
-        <v>101</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
-        <v>201</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
